--- a/ig/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/StructureDefinition-ror-healthcareservice.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4224" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4190" uniqueCount="483">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-healthcareservice</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30</t>
+    <t>2023-02-15T16:25:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil créé dans le cadre du ROR</t>
+    <t xml:space="preserve">Profil créé dans le cadre du ROR pour décrire les prestations que peut réaliser une structure et qui permettent de répondre au besoin de santé d'une personne </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -440,11 +440,11 @@
     <t>ror-healthcareservice-psychiatric-sector</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-psychiatric-sector}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-healthcareservice-psychiatric-sector}
 </t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Extension créée dans le cadre du ROR qui correspond à une aire géographique à laquelle sont rattachées des structures de relais et de soins qui prennent en charge des patients résidants sur ce secteur.</t>
   </si>
   <si>
     <t>HealthcareService.extension:ror-healthcareservice-no-consent-habilitation</t>
@@ -453,58 +453,64 @@
     <t>ror-healthcareservice-no-consent-habilitation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-no-consent-habilitation}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-healthcareservice-no-consent-habilitation}
 </t>
   </si>
   <si>
-    <t>HealthcareService.extension:ror-care-without-patient-approval</t>
-  </si>
-  <si>
-    <t>ror-care-without-patient-approval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-care-without-patient-approval}
+    <t>Extension créée dans le cadre du ROR qui permet d'identifier les offres pour lesquelles un établissement est autorisé par le directeur général de l’ARS après avis du préfet, à prendre en charge des patients sans leur consentement.</t>
+  </si>
+  <si>
+    <t>HealthcareService.extension:ror-specific-competence</t>
+  </si>
+  <si>
+    <t>ror-specific-competence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-specific-competence}
 </t>
   </si>
   <si>
-    <t>HealthcareService.extension:ror-specific-competence</t>
-  </si>
-  <si>
-    <t>ror-specific-competence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-specific-competence}
+    <t>Extension créée dans le cadre du ROR qui correspond à une capacité ou connaissance reconnue qui permet ou facilite l’accueil d’une personne.</t>
+  </si>
+  <si>
+    <t>HealthcareService.extension:ror-healthcareservice-patient-type</t>
+  </si>
+  <si>
+    <t>ror-healthcareservice-patient-type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-healthcareservice-patient-type}
 </t>
   </si>
   <si>
-    <t>HealthcareService.extension:ror-healthcareservice-patient-type</t>
-  </si>
-  <si>
-    <t>ror-healthcareservice-patient-type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-patient-type}
+    <t>Extension créée dans le cadre du ROR pour décrire un ensemble de personnes qui répondent à des critères leur permettant de  bénéficier de la prestation décrite</t>
+  </si>
+  <si>
+    <t>HealthcareService.extension:ror-healthcareservice-sensitive-unit</t>
+  </si>
+  <si>
+    <t>ror-healthcareservice-sensitive-unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-healthcareservice-sensitive-unit}
 </t>
   </si>
   <si>
-    <t>HealthcareService.extension:ror-healthcareservice-sensitive-unit</t>
-  </si>
-  <si>
-    <t>ror-healthcareservice-sensitive-unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-sensitive-unit}
+    <t>Extension créée dans le cadre du ROR pour signaler que toutes les informations de description d'une offre sont confidentielles car elles présentent un risque d'utilisation à des fins malveillantes.</t>
+  </si>
+  <si>
+    <t>HealthcareService.extension:ror-healthcareservice-intervention-zone</t>
+  </si>
+  <si>
+    <t>ror-healthcareservice-intervention-zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-healthcareservice-intervention-zone}
 </t>
   </si>
   <si>
-    <t>HealthcareService.extension:ror-healthcareservice-intervention-zone</t>
-  </si>
-  <si>
-    <t>ror-healthcareservice-intervention-zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-intervention-zone}
-</t>
+    <t>Extension créée dans le cadre du ROR qui correspond au périmètre géographique dans lequel habitent les personnes pouvant être prises en charge pour la prestation décrite. 
+Cela inclus notamment les divisions territoriales dans lesquelles les professionnels se déplacent.</t>
   </si>
   <si>
     <t>HealthcareService.modifierExtension</t>
@@ -1351,28 +1357,37 @@
     <t>ror-available-time-effective-opening-closing-date</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-available-time-effective-opening-closing-date}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-available-time-effective-opening-closing-date}
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Extension créée dans le cadre du ROR </t>
+  </si>
+  <si>
     <t>HealthcareService.availableTime.extension:ror-available-time-number-days-of-week</t>
   </si>
   <si>
     <t>ror-available-time-number-days-of-week</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-available-time-number-days-of-week}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-available-time-number-days-of-week}
 </t>
   </si>
   <si>
+    <t>Extension créée dans le cadre du ROR pour indiquer le numéro du jour dans la semaine.</t>
+  </si>
+  <si>
     <t>HealthcareService.availableTime.extension:ror-healthcareservice-available-time-type-of-time</t>
   </si>
   <si>
     <t>ror-healthcareservice-available-time-type-of-time</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-available-time-type-of-time}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-healthcareservice-available-time-type-of-time}
 </t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR pour apporter un contexte à la plage horaire définie par la suite. Un planning peut être constitué de plusieurs plages horaires du même type ou de type différent.</t>
   </si>
   <si>
     <t>HealthcareService.availableTime.modifierExtension</t>
@@ -1792,7 +1807,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL123"/>
+  <dimension ref="A1:AL122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1811,7 +1826,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="130.046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="114.671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2958,7 +2973,7 @@
         <v>128</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3032,13 +3047,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>126</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>72</v>
@@ -3060,13 +3075,13 @@
         <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>128</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3140,13 +3155,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>126</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>72</v>
@@ -3168,13 +3183,13 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>128</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3248,20 +3263,20 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>126</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>74</v>
@@ -3276,13 +3291,13 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3356,20 +3371,20 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>126</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>74</v>
@@ -3384,13 +3399,13 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>128</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3464,16 +3479,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3486,22 +3499,26 @@
         <v>72</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>72</v>
       </c>
@@ -3537,19 +3554,19 @@
         <v>72</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>73</v>
@@ -3564,7 +3581,7 @@
         <v>134</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>72</v>
@@ -3572,46 +3589,42 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="J17" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="K17" t="s" s="2">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>72</v>
       </c>
@@ -3647,19 +3660,19 @@
         <v>72</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>73</v>
@@ -3671,21 +3684,21 @@
         <v>92</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>72</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3702,26 +3715,30 @@
         <v>72</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Q18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="R18" t="s" s="2">
         <v>72</v>
       </c>
@@ -3765,13 +3782,13 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>92</v>
@@ -3780,18 +3797,18 @@
         <v>93</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3808,30 +3825,28 @@
         <v>72</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Q19" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
         <v>72</v>
       </c>
@@ -3875,7 +3890,7 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
@@ -3887,25 +3902,25 @@
         <v>92</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>177</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3924,16 +3939,16 @@
         <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3959,13 +3974,11 @@
         <v>72</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>72</v>
+        <v>194</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>72</v>
@@ -3983,44 +3996,44 @@
         <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>72</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>72</v>
@@ -4032,16 +4045,16 @@
         <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4067,11 +4080,11 @@
         <v>72</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>72</v>
@@ -4089,7 +4102,7 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
@@ -4104,22 +4117,22 @@
         <v>93</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>194</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>196</v>
+        <v>72</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4138,16 +4151,16 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4173,29 +4186,29 @@
         <v>72</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -4210,7 +4223,7 @@
         <v>93</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>72</v>
@@ -4218,12 +4231,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>72</v>
       </c>
@@ -4232,7 +4247,7 @@
         <v>73</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>72</v>
@@ -4244,16 +4259,16 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4279,29 +4294,31 @@
         <v>72</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AD23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>73</v>
@@ -4316,7 +4333,7 @@
         <v>93</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>72</v>
@@ -4324,13 +4341,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>72</v>
@@ -4352,16 +4369,16 @@
         <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4387,13 +4404,13 @@
         <v>72</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>72</v>
@@ -4411,7 +4428,7 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>73</v>
@@ -4426,7 +4443,7 @@
         <v>93</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>72</v>
@@ -4434,14 +4451,12 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>72</v>
       </c>
@@ -4450,7 +4465,7 @@
         <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>72</v>
@@ -4462,16 +4477,16 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4497,13 +4512,13 @@
         <v>72</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>191</v>
+        <v>72</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>218</v>
+        <v>72</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>219</v>
+        <v>72</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>72</v>
@@ -4521,7 +4536,7 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
@@ -4533,21 +4548,21 @@
         <v>92</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>72</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4558,7 +4573,7 @@
         <v>73</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>72</v>
@@ -4570,16 +4585,16 @@
         <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4629,33 +4644,33 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>226</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4678,16 +4693,16 @@
         <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4737,7 +4752,7 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>73</v>
@@ -4752,7 +4767,7 @@
         <v>93</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>72</v>
@@ -4760,10 +4775,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4783,19 +4798,19 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4845,7 +4860,7 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
@@ -4860,7 +4875,7 @@
         <v>93</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>72</v>
@@ -4868,10 +4883,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4891,19 +4906,19 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4953,7 +4968,7 @@
         <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
@@ -4965,10 +4980,10 @@
         <v>92</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>93</v>
+        <v>251</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>72</v>
@@ -4976,10 +4991,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4990,7 +5005,7 @@
         <v>73</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>72</v>
@@ -4999,19 +5014,19 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5061,22 +5076,22 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>72</v>
@@ -5084,10 +5099,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5110,16 +5125,16 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5169,7 +5184,7 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
@@ -5181,10 +5196,10 @@
         <v>92</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>72</v>
@@ -5192,10 +5207,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5218,16 +5233,16 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5253,13 +5268,13 @@
         <v>72</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>72</v>
+        <v>269</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>72</v>
+        <v>270</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>72</v>
@@ -5277,7 +5292,7 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
@@ -5289,10 +5304,10 @@
         <v>92</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>72</v>
@@ -5300,10 +5315,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5326,17 +5341,15 @@
         <v>72</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>187</v>
+        <v>273</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>72</v>
@@ -5361,13 +5374,13 @@
         <v>72</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>267</v>
+        <v>72</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>265</v>
+        <v>72</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>268</v>
+        <v>72</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>72</v>
@@ -5385,7 +5398,7 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
@@ -5400,7 +5413,7 @@
         <v>93</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>269</v>
+        <v>101</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>72</v>
@@ -5408,10 +5421,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5422,7 +5435,7 @@
         <v>73</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>72</v>
@@ -5434,13 +5447,13 @@
         <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5491,19 +5504,19 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>101</v>
@@ -5514,21 +5527,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>72</v>
@@ -5540,15 +5553,17 @@
         <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>72</v>
@@ -5585,34 +5600,34 @@
         <v>72</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>72</v>
@@ -5620,14 +5635,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>158</v>
+        <v>285</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5640,24 +5655,26 @@
         <v>72</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>127</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>72</v>
       </c>
@@ -5693,19 +5710,19 @@
         <v>72</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
@@ -5728,46 +5745,44 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>283</v>
+        <v>72</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>72</v>
       </c>
@@ -5791,10 +5806,10 @@
         <v>72</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>72</v>
+        <v>269</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>72</v>
+        <v>292</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>72</v>
@@ -5815,22 +5830,22 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>94</v>
+        <v>271</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>72</v>
@@ -5838,10 +5853,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5864,16 +5879,16 @@
         <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>199</v>
+        <v>296</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5899,10 +5914,10 @@
         <v>72</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>267</v>
+        <v>72</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>290</v>
+        <v>72</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>72</v>
@@ -5923,7 +5938,7 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>
@@ -5938,7 +5953,7 @@
         <v>93</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>72</v>
@@ -5946,10 +5961,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5960,7 +5975,7 @@
         <v>73</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>72</v>
@@ -5972,16 +5987,16 @@
         <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6007,13 +6022,13 @@
         <v>72</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>72</v>
+        <v>269</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>72</v>
+        <v>302</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>72</v>
+        <v>303</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>72</v>
@@ -6031,13 +6046,13 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>92</v>
@@ -6046,7 +6061,7 @@
         <v>93</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>72</v>
@@ -6054,10 +6069,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6068,7 +6083,7 @@
         <v>73</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>72</v>
@@ -6080,16 +6095,16 @@
         <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6115,31 +6130,29 @@
         <v>72</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>301</v>
+        <v>72</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
@@ -6154,7 +6167,7 @@
         <v>93</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>72</v>
@@ -6162,12 +6175,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>72</v>
       </c>
@@ -6188,16 +6203,16 @@
         <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6223,29 +6238,29 @@
         <v>72</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>72</v>
+        <v>313</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
@@ -6260,7 +6275,7 @@
         <v>93</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>72</v>
@@ -6268,20 +6283,18 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>80</v>
@@ -6296,24 +6309,22 @@
         <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>72</v>
+        <v>312</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>72</v>
@@ -6331,11 +6342,13 @@
         <v>72</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y42" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z42" t="s" s="2">
-        <v>311</v>
+        <v>72</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>72</v>
@@ -6353,22 +6366,22 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>302</v>
+        <v>101</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>72</v>
@@ -6376,21 +6389,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>72</v>
@@ -6402,22 +6415,24 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>310</v>
+        <v>72</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>72</v>
@@ -6447,34 +6462,34 @@
         <v>72</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>72</v>
@@ -6482,14 +6497,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6505,21 +6520,23 @@
         <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>127</v>
+        <v>320</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>72</v>
       </c>
@@ -6555,19 +6572,19 @@
         <v>72</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>73</v>
@@ -6579,10 +6596,10 @@
         <v>92</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>94</v>
+        <v>326</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>72</v>
@@ -6590,10 +6607,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6604,7 +6621,7 @@
         <v>73</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>72</v>
@@ -6616,19 +6633,19 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>72</v>
@@ -6677,13 +6694,13 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>92</v>
@@ -6692,7 +6709,7 @@
         <v>93</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>72</v>
@@ -6700,12 +6717,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>72</v>
       </c>
@@ -6723,23 +6742,21 @@
         <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>72</v>
       </c>
@@ -6763,13 +6780,11 @@
         <v>72</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>72</v>
+        <v>337</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>72</v>
@@ -6787,13 +6802,13 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>92</v>
@@ -6802,7 +6817,7 @@
         <v>93</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>72</v>
@@ -6810,20 +6825,18 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>80</v>
@@ -6838,24 +6851,22 @@
         <v>72</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>72</v>
@@ -6873,11 +6884,13 @@
         <v>72</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y47" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z47" t="s" s="2">
-        <v>335</v>
+        <v>72</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>72</v>
@@ -6895,22 +6908,22 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>302</v>
+        <v>101</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>72</v>
@@ -6918,21 +6931,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>72</v>
@@ -6944,22 +6957,24 @@
         <v>72</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>334</v>
+        <v>72</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>72</v>
@@ -6989,34 +7004,34 @@
         <v>72</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>72</v>
@@ -7024,14 +7039,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7047,21 +7062,23 @@
         <v>72</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>127</v>
+        <v>320</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>72</v>
       </c>
@@ -7097,19 +7114,19 @@
         <v>72</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
@@ -7121,10 +7138,10 @@
         <v>92</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>94</v>
+        <v>326</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>72</v>
@@ -7132,10 +7149,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7146,7 +7163,7 @@
         <v>73</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>72</v>
@@ -7158,19 +7175,19 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>72</v>
@@ -7219,13 +7236,13 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>92</v>
@@ -7234,7 +7251,7 @@
         <v>93</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>72</v>
@@ -7242,12 +7259,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>72</v>
       </c>
@@ -7265,23 +7284,21 @@
         <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>72</v>
       </c>
@@ -7305,13 +7322,11 @@
         <v>72</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>72</v>
+        <v>344</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>72</v>
@@ -7329,13 +7344,13 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>92</v>
@@ -7344,7 +7359,7 @@
         <v>93</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>72</v>
@@ -7352,20 +7367,18 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>80</v>
@@ -7380,24 +7393,22 @@
         <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>72</v>
+        <v>343</v>
       </c>
       <c r="S52" t="s" s="2">
         <v>72</v>
@@ -7415,11 +7426,13 @@
         <v>72</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y52" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z52" t="s" s="2">
-        <v>342</v>
+        <v>72</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>72</v>
@@ -7437,22 +7450,22 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>302</v>
+        <v>101</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>72</v>
@@ -7460,21 +7473,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>72</v>
@@ -7486,22 +7499,24 @@
         <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>341</v>
+        <v>72</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>72</v>
@@ -7531,34 +7546,34 @@
         <v>72</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>72</v>
@@ -7566,14 +7581,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7589,21 +7604,23 @@
         <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>127</v>
+        <v>320</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>72</v>
       </c>
@@ -7639,19 +7656,19 @@
         <v>72</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>73</v>
@@ -7663,10 +7680,10 @@
         <v>92</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>94</v>
+        <v>326</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>72</v>
@@ -7674,10 +7691,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7688,7 +7705,7 @@
         <v>73</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>72</v>
@@ -7700,19 +7717,19 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>72</v>
@@ -7761,13 +7778,13 @@
         <v>72</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>92</v>
@@ -7776,7 +7793,7 @@
         <v>93</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>72</v>
@@ -7784,12 +7801,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>72</v>
       </c>
@@ -7807,23 +7826,21 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>72</v>
       </c>
@@ -7847,13 +7864,11 @@
         <v>72</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>72</v>
+        <v>351</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>72</v>
@@ -7871,13 +7886,13 @@
         <v>72</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>92</v>
@@ -7886,7 +7901,7 @@
         <v>93</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>72</v>
@@ -7894,20 +7909,18 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>80</v>
@@ -7922,24 +7935,22 @@
         <v>72</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>72</v>
+        <v>350</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>72</v>
@@ -7957,11 +7968,13 @@
         <v>72</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y57" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z57" t="s" s="2">
-        <v>349</v>
+        <v>72</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>72</v>
@@ -7979,22 +7992,22 @@
         <v>72</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>302</v>
+        <v>101</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>72</v>
@@ -8002,21 +8015,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>72</v>
@@ -8028,22 +8041,24 @@
         <v>72</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>348</v>
+        <v>72</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>72</v>
@@ -8073,34 +8088,34 @@
         <v>72</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>72</v>
@@ -8108,14 +8123,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8131,21 +8146,23 @@
         <v>72</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>127</v>
+        <v>320</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>72</v>
       </c>
@@ -8181,19 +8198,19 @@
         <v>72</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>73</v>
@@ -8205,10 +8222,10 @@
         <v>92</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>94</v>
+        <v>326</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>72</v>
@@ -8216,10 +8233,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8230,7 +8247,7 @@
         <v>73</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>72</v>
@@ -8242,19 +8259,19 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>72</v>
@@ -8303,13 +8320,13 @@
         <v>72</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>92</v>
@@ -8318,7 +8335,7 @@
         <v>93</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>72</v>
@@ -8326,12 +8343,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="D61" t="s" s="2">
         <v>72</v>
       </c>
@@ -8349,23 +8368,21 @@
         <v>72</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>72</v>
       </c>
@@ -8389,13 +8406,11 @@
         <v>72</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>72</v>
+        <v>358</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>72</v>
@@ -8413,13 +8428,13 @@
         <v>72</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>92</v>
@@ -8428,7 +8443,7 @@
         <v>93</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>72</v>
@@ -8436,20 +8451,18 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>80</v>
@@ -8464,24 +8477,22 @@
         <v>72</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
-        <v>72</v>
+        <v>357</v>
       </c>
       <c r="S62" t="s" s="2">
         <v>72</v>
@@ -8499,11 +8510,13 @@
         <v>72</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y62" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z62" t="s" s="2">
-        <v>356</v>
+        <v>72</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>72</v>
@@ -8521,22 +8534,22 @@
         <v>72</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>302</v>
+        <v>101</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>72</v>
@@ -8544,21 +8557,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>72</v>
@@ -8570,22 +8583,24 @@
         <v>72</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>355</v>
+        <v>72</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>72</v>
@@ -8615,34 +8630,34 @@
         <v>72</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>72</v>
@@ -8650,14 +8665,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8673,21 +8688,23 @@
         <v>72</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>127</v>
+        <v>320</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>72</v>
       </c>
@@ -8723,19 +8740,19 @@
         <v>72</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>73</v>
@@ -8747,10 +8764,10 @@
         <v>92</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>94</v>
+        <v>326</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>72</v>
@@ -8758,10 +8775,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8772,7 +8789,7 @@
         <v>73</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>72</v>
@@ -8784,19 +8801,19 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>72</v>
@@ -8845,13 +8862,13 @@
         <v>72</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>92</v>
@@ -8860,7 +8877,7 @@
         <v>93</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>72</v>
@@ -8868,12 +8885,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="D66" t="s" s="2">
         <v>72</v>
       </c>
@@ -8891,23 +8910,21 @@
         <v>72</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>72</v>
       </c>
@@ -8931,13 +8948,11 @@
         <v>72</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>72</v>
+        <v>365</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>72</v>
@@ -8955,13 +8970,13 @@
         <v>72</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>92</v>
@@ -8970,7 +8985,7 @@
         <v>93</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>72</v>
@@ -8978,20 +8993,18 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>80</v>
@@ -9006,24 +9019,22 @@
         <v>72</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
-        <v>72</v>
+        <v>364</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>72</v>
@@ -9041,11 +9052,13 @@
         <v>72</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y67" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z67" t="s" s="2">
-        <v>363</v>
+        <v>72</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>72</v>
@@ -9063,22 +9076,22 @@
         <v>72</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>302</v>
+        <v>101</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>72</v>
@@ -9086,21 +9099,21 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>72</v>
@@ -9112,22 +9125,24 @@
         <v>72</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>362</v>
+        <v>72</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>72</v>
@@ -9157,34 +9172,34 @@
         <v>72</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>72</v>
@@ -9192,14 +9207,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9215,21 +9230,23 @@
         <v>72</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>127</v>
+        <v>320</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>72</v>
       </c>
@@ -9265,19 +9282,19 @@
         <v>72</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>73</v>
@@ -9289,10 +9306,10 @@
         <v>92</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>94</v>
+        <v>326</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>72</v>
@@ -9300,10 +9317,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9314,7 +9331,7 @@
         <v>73</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>72</v>
@@ -9326,19 +9343,19 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>72</v>
@@ -9387,13 +9404,13 @@
         <v>72</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>92</v>
@@ -9402,7 +9419,7 @@
         <v>93</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>72</v>
@@ -9410,12 +9427,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="D71" t="s" s="2">
         <v>72</v>
       </c>
@@ -9433,23 +9452,21 @@
         <v>72</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>72</v>
       </c>
@@ -9473,13 +9490,11 @@
         <v>72</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>72</v>
+        <v>372</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>72</v>
@@ -9497,13 +9512,13 @@
         <v>72</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>92</v>
@@ -9512,7 +9527,7 @@
         <v>93</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>72</v>
@@ -9520,20 +9535,18 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>80</v>
@@ -9548,24 +9561,22 @@
         <v>72</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>72</v>
+        <v>371</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>72</v>
@@ -9583,11 +9594,13 @@
         <v>72</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y72" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z72" t="s" s="2">
-        <v>370</v>
+        <v>72</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>72</v>
@@ -9605,22 +9618,22 @@
         <v>72</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>302</v>
+        <v>101</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>72</v>
@@ -9628,21 +9641,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>72</v>
@@ -9654,22 +9667,24 @@
         <v>72</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>369</v>
+        <v>72</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>72</v>
@@ -9699,34 +9714,34 @@
         <v>72</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>72</v>
@@ -9734,14 +9749,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9757,21 +9772,23 @@
         <v>72</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>127</v>
+        <v>320</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>72</v>
       </c>
@@ -9807,19 +9824,19 @@
         <v>72</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>73</v>
@@ -9831,10 +9848,10 @@
         <v>92</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>94</v>
+        <v>326</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>72</v>
@@ -9842,10 +9859,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9856,7 +9873,7 @@
         <v>73</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>72</v>
@@ -9868,19 +9885,19 @@
         <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>72</v>
@@ -9929,13 +9946,13 @@
         <v>72</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>92</v>
@@ -9944,7 +9961,7 @@
         <v>93</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>72</v>
@@ -9952,12 +9969,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="D76" t="s" s="2">
         <v>72</v>
       </c>
@@ -9975,23 +9994,21 @@
         <v>72</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>72</v>
       </c>
@@ -10015,13 +10032,11 @@
         <v>72</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>72</v>
+        <v>379</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>72</v>
@@ -10039,13 +10054,13 @@
         <v>72</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>92</v>
@@ -10054,7 +10069,7 @@
         <v>93</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>72</v>
@@ -10062,20 +10077,18 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>80</v>
@@ -10090,24 +10103,22 @@
         <v>72</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" t="s" s="2">
-        <v>72</v>
+        <v>378</v>
       </c>
       <c r="S77" t="s" s="2">
         <v>72</v>
@@ -10125,11 +10136,13 @@
         <v>72</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y77" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z77" t="s" s="2">
-        <v>377</v>
+        <v>72</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>72</v>
@@ -10147,22 +10160,22 @@
         <v>72</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>302</v>
+        <v>101</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>72</v>
@@ -10170,21 +10183,21 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>72</v>
@@ -10196,22 +10209,24 @@
         <v>72</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>376</v>
+        <v>72</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>72</v>
@@ -10241,34 +10256,34 @@
         <v>72</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>72</v>
@@ -10276,14 +10291,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -10299,21 +10314,23 @@
         <v>72</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>127</v>
+        <v>320</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O79" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>72</v>
       </c>
@@ -10349,19 +10366,19 @@
         <v>72</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>73</v>
@@ -10373,10 +10390,10 @@
         <v>92</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>94</v>
+        <v>326</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>72</v>
@@ -10384,10 +10401,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10398,7 +10415,7 @@
         <v>73</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>72</v>
@@ -10410,19 +10427,19 @@
         <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>72</v>
@@ -10471,13 +10488,13 @@
         <v>72</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>92</v>
@@ -10486,7 +10503,7 @@
         <v>93</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>72</v>
@@ -10494,12 +10511,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="D81" t="s" s="2">
         <v>72</v>
       </c>
@@ -10517,23 +10536,21 @@
         <v>72</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>72</v>
       </c>
@@ -10557,13 +10574,11 @@
         <v>72</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y81" s="2"/>
       <c r="Z81" t="s" s="2">
-        <v>72</v>
+        <v>386</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>72</v>
@@ -10581,13 +10596,13 @@
         <v>72</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>92</v>
@@ -10596,7 +10611,7 @@
         <v>93</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>72</v>
@@ -10604,20 +10619,18 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>80</v>
@@ -10632,24 +10645,22 @@
         <v>72</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>72</v>
+        <v>385</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>72</v>
@@ -10667,11 +10678,13 @@
         <v>72</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y82" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z82" t="s" s="2">
-        <v>384</v>
+        <v>72</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>72</v>
@@ -10689,22 +10702,22 @@
         <v>72</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>302</v>
+        <v>101</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>72</v>
@@ -10712,21 +10725,21 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>72</v>
@@ -10738,22 +10751,24 @@
         <v>72</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>383</v>
+        <v>72</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>72</v>
@@ -10783,34 +10798,34 @@
         <v>72</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>72</v>
@@ -10818,14 +10833,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -10841,21 +10856,23 @@
         <v>72</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>127</v>
+        <v>320</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>72</v>
       </c>
@@ -10891,19 +10908,19 @@
         <v>72</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>73</v>
@@ -10915,10 +10932,10 @@
         <v>92</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>94</v>
+        <v>326</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>72</v>
@@ -10926,10 +10943,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10940,7 +10957,7 @@
         <v>73</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>72</v>
@@ -10952,19 +10969,19 @@
         <v>81</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>72</v>
@@ -11013,13 +11030,13 @@
         <v>72</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>92</v>
@@ -11028,7 +11045,7 @@
         <v>93</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>72</v>
@@ -11036,12 +11053,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C86" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="D86" t="s" s="2">
         <v>72</v>
       </c>
@@ -11059,23 +11078,21 @@
         <v>72</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>72</v>
       </c>
@@ -11099,13 +11116,11 @@
         <v>72</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y86" s="2"/>
       <c r="Z86" t="s" s="2">
-        <v>72</v>
+        <v>393</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>72</v>
@@ -11123,13 +11138,13 @@
         <v>72</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>92</v>
@@ -11138,7 +11153,7 @@
         <v>93</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>72</v>
@@ -11146,20 +11161,18 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>80</v>
@@ -11174,24 +11187,22 @@
         <v>72</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
-        <v>72</v>
+        <v>392</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>72</v>
@@ -11209,11 +11220,13 @@
         <v>72</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y87" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z87" t="s" s="2">
-        <v>391</v>
+        <v>72</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>72</v>
@@ -11231,22 +11244,22 @@
         <v>72</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>302</v>
+        <v>101</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>72</v>
@@ -11254,21 +11267,21 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>72</v>
@@ -11280,22 +11293,24 @@
         <v>72</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>390</v>
+        <v>72</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>72</v>
@@ -11325,34 +11340,34 @@
         <v>72</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>72</v>
@@ -11360,14 +11375,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -11383,21 +11398,23 @@
         <v>72</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>127</v>
+        <v>320</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>72</v>
       </c>
@@ -11433,19 +11450,19 @@
         <v>72</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>73</v>
@@ -11457,10 +11474,10 @@
         <v>92</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>94</v>
+        <v>326</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>72</v>
@@ -11468,10 +11485,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11482,7 +11499,7 @@
         <v>73</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>72</v>
@@ -11494,19 +11511,19 @@
         <v>81</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>72</v>
@@ -11555,13 +11572,13 @@
         <v>72</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>92</v>
@@ -11570,7 +11587,7 @@
         <v>93</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>72</v>
@@ -11578,12 +11595,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C91" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="D91" t="s" s="2">
         <v>72</v>
       </c>
@@ -11601,23 +11620,21 @@
         <v>72</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>72</v>
       </c>
@@ -11641,13 +11658,11 @@
         <v>72</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y91" s="2"/>
       <c r="Z91" t="s" s="2">
-        <v>72</v>
+        <v>400</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>72</v>
@@ -11665,13 +11680,13 @@
         <v>72</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>92</v>
@@ -11680,7 +11695,7 @@
         <v>93</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>72</v>
@@ -11688,20 +11703,18 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>80</v>
@@ -11716,24 +11729,22 @@
         <v>72</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q92" s="2"/>
       <c r="R92" t="s" s="2">
-        <v>72</v>
+        <v>399</v>
       </c>
       <c r="S92" t="s" s="2">
         <v>72</v>
@@ -11751,11 +11762,13 @@
         <v>72</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y92" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z92" t="s" s="2">
-        <v>398</v>
+        <v>72</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>72</v>
@@ -11773,22 +11786,22 @@
         <v>72</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>302</v>
+        <v>101</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>72</v>
@@ -11796,21 +11809,21 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>72</v>
@@ -11822,22 +11835,24 @@
         <v>72</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>397</v>
+        <v>72</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>72</v>
@@ -11867,34 +11882,34 @@
         <v>72</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="AC93" t="s" s="2">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="AD93" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>72</v>
@@ -11902,14 +11917,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -11925,21 +11940,23 @@
         <v>72</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>127</v>
+        <v>320</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>72</v>
       </c>
@@ -11975,19 +11992,19 @@
         <v>72</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>73</v>
@@ -11999,10 +12016,10 @@
         <v>92</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>94</v>
+        <v>326</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>72</v>
@@ -12010,10 +12027,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12024,7 +12041,7 @@
         <v>73</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>72</v>
@@ -12036,19 +12053,19 @@
         <v>81</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>72</v>
@@ -12097,13 +12114,13 @@
         <v>72</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>92</v>
@@ -12112,7 +12129,7 @@
         <v>93</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>72</v>
@@ -12120,12 +12137,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C96" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="D96" t="s" s="2">
         <v>72</v>
       </c>
@@ -12143,23 +12162,21 @@
         <v>72</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>72</v>
       </c>
@@ -12183,13 +12200,11 @@
         <v>72</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y96" s="2"/>
       <c r="Z96" t="s" s="2">
-        <v>72</v>
+        <v>372</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>72</v>
@@ -12207,13 +12222,13 @@
         <v>72</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>92</v>
@@ -12222,7 +12237,7 @@
         <v>93</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>72</v>
@@ -12230,20 +12245,18 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C97" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>80</v>
@@ -12258,24 +12271,22 @@
         <v>72</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q97" s="2"/>
       <c r="R97" t="s" s="2">
-        <v>72</v>
+        <v>406</v>
       </c>
       <c r="S97" t="s" s="2">
         <v>72</v>
@@ -12293,11 +12304,13 @@
         <v>72</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y97" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z97" t="s" s="2">
-        <v>370</v>
+        <v>72</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>72</v>
@@ -12315,22 +12328,22 @@
         <v>72</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>302</v>
+        <v>101</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>72</v>
@@ -12338,21 +12351,21 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>72</v>
@@ -12364,22 +12377,24 @@
         <v>72</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>404</v>
+        <v>72</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>72</v>
@@ -12409,34 +12424,34 @@
         <v>72</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="AD98" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>72</v>
@@ -12444,14 +12459,14 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -12467,21 +12482,23 @@
         <v>72</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>127</v>
+        <v>320</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O99" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>72</v>
       </c>
@@ -12517,19 +12534,19 @@
         <v>72</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="AC99" t="s" s="2">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="AD99" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>73</v>
@@ -12541,10 +12558,10 @@
         <v>92</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>94</v>
+        <v>326</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>72</v>
@@ -12552,10 +12569,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12566,7 +12583,7 @@
         <v>73</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>72</v>
@@ -12578,19 +12595,19 @@
         <v>81</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>72</v>
@@ -12639,13 +12656,13 @@
         <v>72</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>92</v>
@@ -12654,7 +12671,7 @@
         <v>93</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>72</v>
@@ -12662,10 +12679,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>326</v>
+        <v>411</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12676,7 +12693,7 @@
         <v>73</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>72</v>
@@ -12685,23 +12702,21 @@
         <v>72</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>327</v>
+        <v>412</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>328</v>
+        <v>413</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>72</v>
       </c>
@@ -12725,13 +12740,13 @@
         <v>72</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>72</v>
@@ -12749,13 +12764,13 @@
         <v>72</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>331</v>
+        <v>411</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>92</v>
@@ -12764,7 +12779,7 @@
         <v>93</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>332</v>
+        <v>415</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>72</v>
@@ -12772,10 +12787,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12798,16 +12813,16 @@
         <v>72</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>412</v>
+        <v>201</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -12833,13 +12848,13 @@
         <v>72</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>107</v>
+        <v>269</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>108</v>
+        <v>419</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>109</v>
+        <v>420</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>72</v>
@@ -12857,7 +12872,7 @@
         <v>72</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>73</v>
@@ -12872,7 +12887,7 @@
         <v>93</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>413</v>
+        <v>304</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>72</v>
@@ -12880,10 +12895,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -12894,7 +12909,7 @@
         <v>73</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>72</v>
@@ -12906,17 +12921,15 @@
         <v>72</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>72</v>
@@ -12941,13 +12954,13 @@
         <v>72</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>267</v>
+        <v>72</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>417</v>
+        <v>72</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>418</v>
+        <v>72</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>72</v>
@@ -12965,13 +12978,13 @@
         <v>72</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>92</v>
@@ -12980,7 +12993,7 @@
         <v>93</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>72</v>
@@ -12988,10 +13001,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13002,7 +13015,7 @@
         <v>73</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>72</v>
@@ -13014,15 +13027,17 @@
         <v>72</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>171</v>
+        <v>273</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N104" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>72</v>
@@ -13071,13 +13086,13 @@
         <v>72</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>92</v>
@@ -13086,7 +13101,7 @@
         <v>93</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>302</v>
+        <v>428</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>72</v>
@@ -13094,10 +13109,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13108,7 +13123,7 @@
         <v>73</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>72</v>
@@ -13120,17 +13135,15 @@
         <v>72</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>423</v>
+        <v>277</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>72</v>
@@ -13179,22 +13192,22 @@
         <v>72</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>422</v>
+        <v>279</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>426</v>
+        <v>101</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>72</v>
@@ -13202,21 +13215,21 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>72</v>
@@ -13228,15 +13241,17 @@
         <v>72</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N106" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>72</v>
@@ -13273,34 +13288,34 @@
         <v>72</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="AC106" t="s" s="2">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="AD106" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>72</v>
@@ -13308,14 +13323,16 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C107" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="D107" t="s" s="2">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -13334,17 +13351,15 @@
         <v>72</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>127</v>
+        <v>433</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>279</v>
+        <v>128</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N107" s="2"/>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>72</v>
@@ -13381,19 +13396,19 @@
         <v>72</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="AC107" t="s" s="2">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="AD107" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>73</v>
@@ -13408,7 +13423,7 @@
         <v>134</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>72</v>
@@ -13416,13 +13431,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>72</v>
@@ -13432,7 +13447,7 @@
         <v>73</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>72</v>
@@ -13444,13 +13459,13 @@
         <v>72</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="L108" t="s" s="2">
         <v>128</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>138</v>
+        <v>438</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -13501,7 +13516,7 @@
         <v>72</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>73</v>
@@ -13524,13 +13539,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>72</v>
@@ -13540,7 +13555,7 @@
         <v>73</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>72</v>
@@ -13552,13 +13567,13 @@
         <v>72</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="L109" t="s" s="2">
         <v>128</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>138</v>
+        <v>442</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13609,7 +13624,7 @@
         <v>72</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>73</v>
@@ -13632,16 +13647,14 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C110" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>72</v>
+        <v>285</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -13654,22 +13667,26 @@
         <v>72</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>437</v>
+        <v>127</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>128</v>
+        <v>286</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P110" t="s" s="2">
         <v>72</v>
       </c>
@@ -13717,7 +13734,7 @@
         <v>72</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>73</v>
@@ -13732,7 +13749,7 @@
         <v>134</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>72</v>
@@ -13740,14 +13757,14 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>283</v>
+        <v>72</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -13760,26 +13777,24 @@
         <v>72</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>284</v>
+        <v>445</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>285</v>
+        <v>446</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>72</v>
       </c>
@@ -13803,13 +13818,13 @@
         <v>72</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>72</v>
+        <v>447</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>72</v>
+        <v>448</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>72</v>
@@ -13827,7 +13842,7 @@
         <v>72</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>286</v>
+        <v>444</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>73</v>
@@ -13839,10 +13854,10 @@
         <v>92</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>94</v>
+        <v>428</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>72</v>
@@ -13850,10 +13865,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13864,7 +13879,7 @@
         <v>73</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>72</v>
@@ -13876,17 +13891,15 @@
         <v>72</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="N112" s="2"/>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>72</v>
@@ -13911,13 +13924,13 @@
         <v>72</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>191</v>
+        <v>72</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>442</v>
+        <v>72</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>443</v>
+        <v>72</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>72</v>
@@ -13935,13 +13948,13 @@
         <v>72</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>92</v>
@@ -13950,7 +13963,7 @@
         <v>93</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>72</v>
@@ -13958,10 +13971,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -13984,15 +13997,17 @@
         <v>72</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>171</v>
+        <v>453</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N113" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>72</v>
@@ -14041,7 +14056,7 @@
         <v>72</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>73</v>
@@ -14056,7 +14071,7 @@
         <v>93</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>72</v>
@@ -14064,10 +14079,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14090,16 +14105,16 @@
         <v>72</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -14149,7 +14164,7 @@
         <v>72</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>73</v>
@@ -14164,7 +14179,7 @@
         <v>93</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>72</v>
@@ -14172,10 +14187,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14186,7 +14201,7 @@
         <v>73</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>72</v>
@@ -14198,17 +14213,15 @@
         <v>72</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>448</v>
+        <v>273</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="N115" s="2"/>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>72</v>
@@ -14257,13 +14270,13 @@
         <v>72</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>92</v>
@@ -14272,7 +14285,7 @@
         <v>93</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>72</v>
@@ -14280,10 +14293,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14294,7 +14307,7 @@
         <v>73</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>72</v>
@@ -14306,13 +14319,13 @@
         <v>72</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>456</v>
+        <v>277</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>457</v>
+        <v>278</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -14363,22 +14376,22 @@
         <v>72</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>455</v>
+        <v>279</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>426</v>
+        <v>101</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>72</v>
@@ -14386,21 +14399,21 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>72</v>
@@ -14412,15 +14425,17 @@
         <v>72</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N117" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
         <v>72</v>
@@ -14457,34 +14472,34 @@
         <v>72</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="AC117" t="s" s="2">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="AD117" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>72</v>
@@ -14492,14 +14507,14 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>158</v>
+        <v>285</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -14512,24 +14527,26 @@
         <v>72</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>127</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O118" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P118" t="s" s="2">
         <v>72</v>
       </c>
@@ -14565,19 +14582,19 @@
         <v>72</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="AC118" t="s" s="2">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="AD118" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>73</v>
@@ -14600,46 +14617,44 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>283</v>
+        <v>72</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>284</v>
+        <v>467</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>285</v>
+        <v>468</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>72</v>
       </c>
@@ -14687,22 +14702,22 @@
         <v>72</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>286</v>
+        <v>466</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>72</v>
@@ -14710,10 +14725,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14721,7 +14736,7 @@
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>80</v>
@@ -14736,16 +14751,16 @@
         <v>72</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>228</v>
+        <v>470</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>231</v>
+        <v>473</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -14795,10 +14810,10 @@
         <v>72</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>80</v>
@@ -14807,10 +14822,10 @@
         <v>92</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>93</v>
+        <v>474</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>101</v>
+        <v>428</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>72</v>
@@ -14818,10 +14833,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14844,16 +14859,16 @@
         <v>72</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>465</v>
+        <v>230</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>468</v>
+        <v>233</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -14903,7 +14918,7 @@
         <v>72</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>73</v>
@@ -14915,10 +14930,10 @@
         <v>92</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>469</v>
+        <v>93</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>72</v>
@@ -14926,10 +14941,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14940,7 +14955,7 @@
         <v>73</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>72</v>
@@ -14952,16 +14967,16 @@
         <v>72</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>228</v>
+        <v>479</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -15011,132 +15026,24 @@
         <v>72</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E123" s="2"/>
-      <c r="F123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O123" s="2"/>
-      <c r="P123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q123" s="2"/>
-      <c r="R123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AL123" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/ig/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T16:25:23+00:00</t>
+    <t>2023-02-16T13:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T17:20:54+00:00</t>
+    <t>2023-02-23T08:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T16:18:17+00:00</t>
+    <t>2023-02-27T15:55:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T15:55:53+00:00</t>
+    <t>2023-03-06T10:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>80</v>
@@ -3195,7 +3195,7 @@
         <v>73</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>72</v>
@@ -10095,7 +10095,7 @@
         <v>73</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>72</v>
@@ -11281,7 +11281,7 @@
         <v>73</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>72</v>
